--- a/InputData/indst/FYIESM/Final Year Indst Eqpt Shareweight Mins.xlsx
+++ b/InputData/indst/FYIESM/Final Year Indst Eqpt Shareweight Mins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\FYIESM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1972DB6A-702C-4882-8E98-3743BCB0005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D459622-9BB6-42AA-ABFA-69CA97B84CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34635" yWindow="2610" windowWidth="21600" windowHeight="12525" xr2:uid="{7AE4E9C5-C544-4D78-B04A-7E87E653A435}"/>
+    <workbookView xWindow="61260" yWindow="1725" windowWidth="24900" windowHeight="14490" activeTab="1" xr2:uid="{7AE4E9C5-C544-4D78-B04A-7E87E653A435}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Unit: none (shareweights)</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>(generally between zero and one) for different industrial fuels applies to industrial</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5811F5-7C38-46B1-98CD-272839D260D9}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -602,17 +608,19 @@
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="11" width="13.08984375" customWidth="1"/>
+    <col min="2" max="13" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,8 +654,14 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -681,8 +695,14 @@
       <c r="K2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -716,8 +736,14 @@
       <c r="K3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -751,8 +777,14 @@
       <c r="K4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -786,8 +818,14 @@
       <c r="K5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -821,8 +859,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -856,8 +900,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -891,8 +941,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -924,6 +980,12 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
